--- a/walkingspeed_day2.xlsx
+++ b/walkingspeed_day2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\work\qib projects\teaching\R_for_Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE161A65-8D78-4FD6-AE5E-DCD19A652FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADF3157-137B-4834-96E3-CFB0A609D4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D8CBC4D1-9FB4-4831-9130-5887E58C9FEE}"/>
+    <workbookView xWindow="-19320" yWindow="195" windowWidth="19440" windowHeight="14880" activeTab="6" xr2:uid="{D8CBC4D1-9FB4-4831-9130-5887E58C9FEE}"/>
   </bookViews>
   <sheets>
     <sheet name="treated" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="day2" sheetId="4" r:id="rId4"/>
     <sheet name="fixed_old" sheetId="5" r:id="rId5"/>
     <sheet name="mergeexample" sheetId="6" r:id="rId6"/>
+    <sheet name="cleaned" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="25">
   <si>
     <t>patid</t>
   </si>
@@ -3574,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3ECCE8-CA3C-4C0B-9C50-339ACC71E096}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9380,22 +9381,2739 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2160DA75-B25D-4EB9-8E33-A0415263A8AC}">
+  <dimension ref="A1:F136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>1.8979999999999999</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>3.5369999999999999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>61</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>2.927</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1.82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>62</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>3.0379999999999998</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>62</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>57</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>57</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1.72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>57</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>2.484</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>57</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2.44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>2.6160000000000001</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>2.78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>1.839</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>3.7389999999999999</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>59</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>57</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>1.956</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>5.415</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>72</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>3.1949999999999998</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>57</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>3.028</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>57</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>62</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>56</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>2.69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>52</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>62</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>54</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>1.746</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>59</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>2.7160000000000002</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>55</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>2.9159999999999999</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>57</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>1.694</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>56</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>2.7080000000000002</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>57</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>51</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>5.056</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>54</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>1.677</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>49</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>3.32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>53</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>3.36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>58</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>1.494</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>57</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>67</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>2.6549999999999998</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>54</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>6.5890000000000004</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>55</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>2.8570000000000002</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>58</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>55</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>2.4020000000000001</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>55</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>1.919</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>54</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>1.714</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>53</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50">
+        <v>1.88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>57</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>3.1829999999999998</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>57</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>2.8969999999999998</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>57</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54">
+        <v>2.6579999999999999</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>54</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>10.590999999999999</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>54</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>3.0670000000000002</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>59</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>2.5720000000000001</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>62</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>1.734</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>68</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>2.3809999999999998</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>56</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60">
+        <v>2.37</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>68</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>3.528</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>54</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62">
+        <v>2.492</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>63</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>12.169</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>72</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>59</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>2.274</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>56</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66">
+        <v>2.3610000000000002</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>59</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>68</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>2.1680000000000001</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>54</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>66</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70">
+        <v>1.804</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>66</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>2.1920000000000002</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>61</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72">
+        <v>2.48</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>60</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>3.944</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>57</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74">
+        <v>2.2130000000000001</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>58</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>3.39</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>63</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76">
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>70</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>5.1470000000000002</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>59</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78">
+        <v>2.5419999999999998</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>53</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>56</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80">
+        <v>2.633</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>61</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>3.34</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>58</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82">
+        <v>2.67</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>59</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>2.3929999999999998</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>59</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84">
+        <v>1.907</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <v>53</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>2.375</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>59</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86">
+        <v>1.647</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>64</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>2.2109999999999999</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>63</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88">
+        <v>2.3879999999999999</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>62</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>3.3439999999999999</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <v>57</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90">
+        <v>59</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91">
+        <v>54</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92">
+        <v>2.9710000000000001</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>59</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>2.75</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93">
+        <v>61</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94">
+        <v>3.0529999999999999</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>68</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>3.3610000000000002</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95">
+        <v>65</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96">
+        <v>3.109</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96">
+        <v>57</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>2.8039999999999998</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97">
+        <v>61</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98">
+        <v>2.165</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98">
+        <v>54</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>4.5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99">
+        <v>64</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100">
+        <v>17.640999999999998</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100">
+        <v>64</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>3.6429999999999998</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101">
+        <v>70</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102">
+        <v>2.3929999999999998</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>57</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>52</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104">
+        <v>2.3210000000000002</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104">
+        <v>55</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <v>2.3180000000000001</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105">
+        <v>52</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106">
+        <v>2.9390000000000001</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106">
+        <v>50</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107">
+        <v>2.242</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <v>55</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108">
+        <v>50</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109">
+        <v>55</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>56</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111">
+        <v>2.3780000000000001</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <v>54</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112">
+        <v>2.1909999999999998</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <v>54</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>2.371</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <v>51</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114">
+        <v>49</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>2.169</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>59</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116">
+        <v>2.1269999999999998</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116">
+        <v>55</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>2.3730000000000002</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>59</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118">
+        <v>2.887</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>48</v>
+      </c>
+      <c r="F118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>2.9590000000000001</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119">
+        <v>55</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>58</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>3.8820000000000001</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121">
+        <v>54</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122">
+        <v>2.194</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122">
+        <v>54</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123">
+        <v>2.2959999999999998</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123">
+        <v>51</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124">
+        <v>2.1160000000000001</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124">
+        <v>65</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125">
+        <v>3.0760000000000001</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125">
+        <v>58</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126">
+        <v>2.5259999999999998</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126">
+        <v>64</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127">
+        <v>5.0330000000000004</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127">
+        <v>55</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128">
+        <v>51</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129">
+        <v>2.871</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129">
+        <v>47</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130">
+        <v>2.375</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130">
+        <v>51</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131">
+        <v>3.9809999999999999</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <v>56</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132">
+        <v>2.2810000000000001</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132">
+        <v>60</v>
+      </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133">
+        <v>2.29</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133">
+        <v>56</v>
+      </c>
+      <c r="F133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134">
+        <v>2.355</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134">
+        <v>49</v>
+      </c>
+      <c r="F134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135">
+        <v>1.843</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135">
+        <v>58</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136">
+        <v>2.0840000000000001</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136">
+        <v>53</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B00C8C9A5F81F49A67DC51620EC5798" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68e9303e501e93ae8701bc1610e0f819">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd92603c-859a-442e-a245-f0a1791b220d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a13867be9d4ce8de6b98432a21811bad" ns2:_="">
     <xsd:import namespace="dd92603c-859a-442e-a245-f0a1791b220d"/>
@@ -9567,24 +12285,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D46BB600-34DA-426A-ABAC-0E45A6A17503}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DECDB837-8041-495C-AF54-FC6745558D91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3051C4E-04DC-4169-B95A-E6A12F3920FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9600,4 +12316,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DECDB837-8041-495C-AF54-FC6745558D91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D46BB600-34DA-426A-ABAC-0E45A6A17503}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>